--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pan_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pan_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,31 +390,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>74</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>76</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>78</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>80</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>82</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>84</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>86</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>88</v>
@@ -478,87 +478,87 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>112</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>115</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>118</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>122</v>
@@ -590,15 +590,15 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -702,9 +702,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -715,7 +723,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -735,31 +743,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>61</v>
@@ -767,231 +775,231 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -999,7 +1007,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1007,7 +1015,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1015,7 +1023,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1023,7 +1031,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1031,7 +1039,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1039,7 +1047,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1047,9 +1055,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -1060,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1080,271 +1096,271 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1352,7 +1368,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1360,7 +1376,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1368,7 +1384,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1376,7 +1392,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1384,7 +1400,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1392,9 +1408,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -1405,7 +1429,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1425,39 +1449,39 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>61</v>
@@ -1465,231 +1489,231 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1697,7 +1721,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1705,7 +1729,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1713,7 +1737,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1721,7 +1745,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1729,7 +1753,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1737,9 +1761,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -1750,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1770,279 +1802,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2050,7 +2082,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2058,7 +2090,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2066,7 +2098,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2074,7 +2106,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2082,9 +2114,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -2095,7 +2135,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2115,279 +2155,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2395,7 +2435,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2403,7 +2443,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2411,7 +2451,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2419,7 +2459,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2427,9 +2467,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -2440,7 +2488,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2460,47 +2508,47 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>61</v>
@@ -2508,15 +2556,15 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>65</v>
@@ -2524,215 +2572,215 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2740,7 +2788,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2748,7 +2796,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2756,7 +2804,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2764,7 +2812,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2772,9 +2820,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -2785,7 +2841,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2805,47 +2861,47 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>61</v>
@@ -2853,231 +2909,231 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -3085,7 +3141,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3093,7 +3149,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3101,7 +3157,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3109,7 +3165,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3117,9 +3173,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -3130,7 +3194,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3150,287 +3214,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3438,7 +3502,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3446,7 +3510,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3454,7 +3518,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3462,9 +3526,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -3475,7 +3547,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3495,79 +3567,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>68</v>
@@ -3575,207 +3647,207 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3783,7 +3855,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3791,7 +3863,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -3799,7 +3871,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3807,9 +3879,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -3820,7 +3900,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3840,55 +3920,55 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>61</v>
@@ -3896,23 +3976,23 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>67</v>
@@ -3920,207 +4000,207 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4128,7 +4208,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4136,7 +4216,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4144,7 +4224,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4152,9 +4232,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -4165,7 +4253,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4185,23 +4273,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>70</v>
@@ -4209,79 +4297,79 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>90</v>
@@ -4289,7 +4377,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>92</v>
@@ -4297,7 +4385,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>94</v>
@@ -4305,7 +4393,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>96</v>
@@ -4313,31 +4401,31 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>105</v>
@@ -4345,15 +4433,15 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>110</v>
@@ -4361,7 +4449,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>113</v>
@@ -4369,7 +4457,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>116</v>
@@ -4377,31 +4465,31 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -4409,7 +4497,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -4417,7 +4505,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -4425,7 +4513,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -4433,7 +4521,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -4441,7 +4529,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4449,7 +4537,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4457,7 +4545,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4465,7 +4553,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4473,7 +4561,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4481,7 +4569,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4489,7 +4577,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4497,9 +4585,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -4510,7 +4606,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4530,63 +4626,63 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>61</v>
@@ -4594,231 +4690,231 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4826,7 +4922,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4834,7 +4930,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4842,9 +4938,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -4855,7 +4959,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4875,23 +4979,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>68</v>
@@ -4899,7 +5003,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>71</v>
@@ -4907,71 +5011,71 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>89</v>
@@ -4979,7 +5083,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>91</v>
@@ -4987,7 +5091,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>93</v>
@@ -4995,7 +5099,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>95</v>
@@ -5003,7 +5107,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>97</v>
@@ -5011,7 +5115,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>99</v>
@@ -5019,7 +5123,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>101</v>
@@ -5027,7 +5131,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>104</v>
@@ -5035,7 +5139,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>106</v>
@@ -5043,63 +5147,63 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -5107,7 +5211,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -5115,7 +5219,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -5123,7 +5227,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -5131,7 +5235,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5139,7 +5243,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5147,7 +5251,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5155,7 +5259,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5163,7 +5267,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5171,7 +5275,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5179,7 +5283,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5187,9 +5291,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -5200,7 +5312,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5220,151 +5332,151 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -5372,23 +5484,23 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>107</v>
@@ -5396,55 +5508,55 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -5452,7 +5564,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -5460,7 +5572,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -5468,7 +5580,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -5476,7 +5588,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5484,7 +5596,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5492,7 +5604,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5500,7 +5612,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5508,7 +5620,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5516,7 +5628,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5524,7 +5636,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5532,9 +5644,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -5545,7 +5665,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5565,7 +5685,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>61</v>
@@ -5573,23 +5693,23 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>68</v>
@@ -5597,207 +5717,207 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -5805,7 +5925,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -5813,7 +5933,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -5821,7 +5941,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5829,7 +5949,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5837,7 +5957,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5845,7 +5965,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5853,7 +5973,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5861,7 +5981,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5869,7 +5989,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5877,9 +5997,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -5890,7 +6018,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5910,247 +6038,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -6158,7 +6286,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6166,7 +6294,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6174,7 +6302,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6182,7 +6310,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6190,7 +6318,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6198,7 +6326,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6206,7 +6334,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6214,7 +6342,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6222,9 +6350,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -6235,7 +6371,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6255,15 +6391,15 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>61</v>
@@ -6271,231 +6407,231 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -6503,7 +6639,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6511,7 +6647,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6519,7 +6655,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6527,7 +6663,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6535,7 +6671,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6543,7 +6679,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6551,7 +6687,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6559,7 +6695,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6567,9 +6703,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -6580,7 +6724,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6600,23 +6744,23 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>61</v>
@@ -6624,15 +6768,15 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>66</v>
@@ -6640,215 +6784,215 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6856,7 +7000,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6864,7 +7008,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6872,7 +7016,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6880,7 +7024,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6888,7 +7032,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6896,7 +7040,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6904,7 +7048,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6912,9 +7056,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>
@@ -6925,7 +7077,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6945,263 +7097,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -7209,7 +7361,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -7217,7 +7369,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7225,7 +7377,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7233,7 +7385,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7241,7 +7393,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -7249,7 +7401,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -7257,9 +7409,17 @@
     </row>
     <row r="41">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pan_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/pan_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -497,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -513,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -537,7 +537,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -553,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -561,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -577,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -601,7 +601,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -762,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -770,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -786,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -890,7 +890,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -898,7 +898,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -930,7 +930,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -938,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -954,7 +954,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -962,7 +962,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -970,7 +970,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -978,7 +978,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -986,7 +986,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -994,7 +994,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -1123,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1251,7 +1251,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
@@ -1291,7 +1291,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -1307,7 +1307,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -1323,7 +1323,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -1331,7 +1331,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -1339,7 +1339,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -1347,7 +1347,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -1355,7 +1355,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -1468,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1484,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1492,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -1524,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1532,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1540,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1548,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -1556,7 +1556,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -1564,7 +1564,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -1572,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -1580,7 +1580,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -1588,7 +1588,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -1596,7 +1596,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -1644,7 +1644,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1676,7 +1676,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1684,7 +1684,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -1692,7 +1692,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -1700,7 +1700,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -1708,7 +1708,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1821,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1829,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1837,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1845,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1853,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1861,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1869,7 +1869,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1877,7 +1877,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -1885,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1893,7 +1893,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -1901,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -1909,7 +1909,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -1917,7 +1917,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -1925,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -1933,7 +1933,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -1941,7 +1941,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -2029,7 +2029,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -2053,7 +2053,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -2061,7 +2061,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -2069,7 +2069,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -2182,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -2190,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -2198,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -2206,7 +2206,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -2214,7 +2214,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -2222,7 +2222,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -2230,7 +2230,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -2238,7 +2238,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -2246,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -2254,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2262,7 +2262,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -2342,7 +2342,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -2422,7 +2422,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -2535,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2543,7 +2543,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -2551,7 +2551,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -2559,7 +2559,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -2567,7 +2567,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -2575,7 +2575,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -2583,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -2591,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2599,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -2607,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2615,7 +2615,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -2623,7 +2623,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -2631,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -2639,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -2647,7 +2647,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -2655,7 +2655,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -2663,7 +2663,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -2671,7 +2671,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -2679,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -2687,7 +2687,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -2711,7 +2711,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -2719,7 +2719,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -2735,7 +2735,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -2888,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -2904,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -2912,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -2920,7 +2920,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -2928,7 +2928,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -2936,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -2944,7 +2944,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2952,7 +2952,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -2960,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -2968,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -2976,7 +2976,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -2984,7 +2984,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2992,7 +2992,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -3000,7 +3000,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -3008,7 +3008,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -3016,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -3024,7 +3024,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -3048,7 +3048,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -3056,7 +3056,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -3064,7 +3064,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -3080,7 +3080,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -3096,7 +3096,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -3104,7 +3104,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -3112,7 +3112,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -3225,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -3233,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -3241,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -3249,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -3257,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -3265,7 +3265,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -3273,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -3281,7 +3281,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -3289,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -3297,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -3305,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -3313,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -3321,7 +3321,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -3329,7 +3329,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -3337,7 +3337,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -3345,7 +3345,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -3353,7 +3353,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -3361,7 +3361,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -3369,7 +3369,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -3377,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -3385,7 +3385,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -3393,7 +3393,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -3401,7 +3401,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -3409,7 +3409,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -3417,7 +3417,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -3425,7 +3425,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -3433,7 +3433,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -3449,7 +3449,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -3457,7 +3457,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -3465,7 +3465,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -3473,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -3481,7 +3481,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -3489,7 +3489,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -3578,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -3586,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -3594,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -3602,7 +3602,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -3610,7 +3610,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -3618,7 +3618,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -3626,7 +3626,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -3634,7 +3634,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -3642,7 +3642,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -3650,7 +3650,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -3658,7 +3658,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -3666,7 +3666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -3674,7 +3674,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -3682,7 +3682,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -3690,7 +3690,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -3698,7 +3698,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -3706,7 +3706,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -3714,7 +3714,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -3722,7 +3722,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -3730,7 +3730,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -3738,7 +3738,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -3746,7 +3746,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -3754,7 +3754,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -3762,7 +3762,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -3770,7 +3770,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -3778,7 +3778,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -3786,7 +3786,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -3794,7 +3794,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -3802,7 +3802,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -3810,7 +3810,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -3818,7 +3818,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -3826,7 +3826,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -3834,7 +3834,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -3842,7 +3842,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -3947,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -3955,7 +3955,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -3963,7 +3963,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -3971,7 +3971,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -3979,7 +3979,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -3987,7 +3987,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -3995,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -4003,7 +4003,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -4011,7 +4011,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -4019,7 +4019,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -4027,7 +4027,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -4035,7 +4035,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -4043,7 +4043,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -4051,7 +4051,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -4059,7 +4059,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -4067,7 +4067,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -4075,7 +4075,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -4083,7 +4083,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -4091,7 +4091,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -4099,7 +4099,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -4107,7 +4107,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -4123,7 +4123,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -4131,7 +4131,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -4139,7 +4139,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -4147,7 +4147,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -4155,7 +4155,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -4163,7 +4163,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -4187,7 +4187,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -4195,7 +4195,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -4203,7 +4203,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -4292,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -4308,7 +4308,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -4316,7 +4316,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -4324,7 +4324,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -4332,7 +4332,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -4340,7 +4340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -4348,7 +4348,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -4356,7 +4356,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -4364,7 +4364,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -4372,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
@@ -4380,7 +4380,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -4388,7 +4388,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -4396,7 +4396,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -4404,7 +4404,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -4412,7 +4412,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
@@ -4420,7 +4420,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -4428,7 +4428,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -4436,7 +4436,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -4444,7 +4444,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
@@ -4452,7 +4452,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -4460,7 +4460,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -4468,7 +4468,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -4476,7 +4476,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -4484,7 +4484,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
@@ -4492,7 +4492,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
@@ -4709,7 +4709,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -4717,7 +4717,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -4725,7 +4725,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -4733,7 +4733,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -4741,7 +4741,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -4749,7 +4749,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -4757,7 +4757,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -4773,7 +4773,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -4781,7 +4781,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -4789,7 +4789,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -4797,7 +4797,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -4805,7 +4805,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -4813,7 +4813,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -4821,7 +4821,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -4829,7 +4829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -4837,7 +4837,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -4845,7 +4845,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -4853,7 +4853,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -4861,7 +4861,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -4869,7 +4869,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -4877,7 +4877,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -4885,7 +4885,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -4893,7 +4893,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -4901,7 +4901,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -4909,7 +4909,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -4998,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -5006,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -5014,7 +5014,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -5022,7 +5022,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -5030,7 +5030,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -5038,7 +5038,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -5046,7 +5046,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -5054,7 +5054,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -5062,7 +5062,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -5070,7 +5070,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -5078,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -5086,7 +5086,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -5094,7 +5094,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -5102,7 +5102,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -5110,7 +5110,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -5118,7 +5118,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -5126,7 +5126,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -5134,7 +5134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -5142,7 +5142,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -5150,7 +5150,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -5158,7 +5158,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -5166,7 +5166,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -5174,7 +5174,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -5182,7 +5182,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -5190,7 +5190,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -5198,7 +5198,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -5351,7 +5351,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -5359,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -5367,7 +5367,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -5375,7 +5375,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -5383,7 +5383,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -5391,7 +5391,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -5399,7 +5399,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -5407,7 +5407,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -5415,7 +5415,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -5423,7 +5423,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -5431,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -5439,7 +5439,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -5447,7 +5447,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -5455,7 +5455,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
@@ -5463,7 +5463,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -5471,7 +5471,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -5479,7 +5479,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -5487,7 +5487,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -5495,7 +5495,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
@@ -5503,7 +5503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -5511,7 +5511,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -5519,7 +5519,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -5527,7 +5527,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -5535,7 +5535,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -5543,7 +5543,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -5551,7 +5551,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -5559,7 +5559,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -5696,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -5704,7 +5704,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -5720,7 +5720,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -5728,7 +5728,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -5736,7 +5736,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -5744,7 +5744,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -5752,7 +5752,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -5760,7 +5760,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -5768,7 +5768,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -5776,7 +5776,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -5784,7 +5784,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -5792,7 +5792,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -5800,7 +5800,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -5808,7 +5808,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -5816,7 +5816,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -5824,7 +5824,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -5832,7 +5832,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
@@ -5848,7 +5848,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -5856,7 +5856,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
@@ -5872,7 +5872,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -5880,7 +5880,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -5896,7 +5896,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -6049,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -6057,7 +6057,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -6065,7 +6065,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -6073,7 +6073,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -6081,7 +6081,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -6089,7 +6089,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -6097,7 +6097,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -6105,7 +6105,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -6113,7 +6113,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -6121,7 +6121,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -6129,7 +6129,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -6137,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -6145,7 +6145,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -6153,7 +6153,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -6161,7 +6161,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -6169,7 +6169,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -6177,7 +6177,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -6185,7 +6185,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -6209,7 +6209,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -6410,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -6418,7 +6418,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -6426,7 +6426,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -6434,7 +6434,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -6442,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -6450,7 +6450,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -6546,7 +6546,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -6626,7 +6626,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -6763,7 +6763,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -6779,7 +6779,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -6787,7 +6787,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -6795,7 +6795,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -6803,7 +6803,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -6811,7 +6811,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -6819,7 +6819,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -6827,7 +6827,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -6835,7 +6835,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -6843,7 +6843,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -6851,7 +6851,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -6915,7 +6915,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -6939,7 +6939,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -6955,7 +6955,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -6963,7 +6963,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -6971,7 +6971,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -6979,7 +6979,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
@@ -6987,7 +6987,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -7116,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -7124,7 +7124,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -7132,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -7284,7 +7284,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -7300,7 +7300,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -7316,7 +7316,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -7324,7 +7324,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -7332,7 +7332,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -7340,7 +7340,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -7348,7 +7348,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
